--- a/src/assets/afnic.xlsx
+++ b/src/assets/afnic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\lab\excel_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\lab\angular.io\icsp\icsp_project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Policy Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Policy Number</t>
   </si>
   <si>
-    <t>Created From Date</t>
-  </si>
-  <si>
-    <t>Created To Date</t>
-  </si>
-  <si>
-    <t>Policy No</t>
-  </si>
-  <si>
     <t>Policy Expiry Date</t>
   </si>
   <si>
@@ -66,6 +54,21 @@
   </si>
   <si>
     <t>agent name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subclass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insu Type </t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover Type </t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -101,9 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A2" sqref="A2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +397,7 @@
     <col min="1" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
@@ -404,60 +406,56 @@
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
